--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -27,6 +27,14 @@
   </si>
   <si>
     <t>Comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/5/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weekly Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -383,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -404,6 +412,17 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -35,6 +35,14 @@
   </si>
   <si>
     <t>Weekly Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/7/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -391,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -423,6 +431,17 @@
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -44,6 +44,9 @@
   <si>
     <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K'Nex Meeting</t>
   </si>
 </sst>
 </file>
@@ -54,14 +57,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -70,7 +73,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -98,16 +101,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -115,7 +121,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -399,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -444,6 +450,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>40186</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -457,7 +474,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -471,7 +488,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>K'Nex Meeting</t>
+  </si>
+  <si>
+    <t>Meccano Meeting at Nick's Place</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -459,6 +462,17 @@
       </c>
       <c r="C4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>40187</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Meccano Meeting at Nick's Place</t>
+  </si>
+  <si>
+    <t>CFP Motor, Gear and Positioning write-up</t>
   </si>
 </sst>
 </file>
@@ -408,14 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
@@ -473,6 +477,17 @@
       </c>
       <c r="C5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>40189</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>CFP Motor, Gear and Positioning write-up</t>
+  </si>
+  <si>
+    <t>1/12/2010</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -63,14 +67,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -79,7 +83,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -119,7 +123,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -127,7 +131,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -411,16 +415,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -490,6 +494,28 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -503,7 +529,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -517,7 +543,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>1/12/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/19/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -111,7 +115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -119,6 +123,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -415,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -513,6 +520,28 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>4</v>
       </c>
     </row>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>1/19/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/21/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -422,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -543,6 +547,17 @@
       </c>
       <c r="C10" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -55,16 +55,7 @@
     <t>CFP Motor, Gear and Positioning write-up</t>
   </si>
   <si>
-    <t>1/12/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/19/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/21/2010</t>
-    <phoneticPr fontId="1"/>
+    <t>Torque theta graphs and motor selction writeup for TAR</t>
   </si>
 </sst>
 </file>
@@ -75,14 +66,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -91,7 +82,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -119,7 +110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -129,12 +120,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -142,7 +130,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -426,16 +414,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -506,58 +494,14 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="A7" s="2">
+        <v>40202</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +517,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -587,7 +531,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -4,58 +4,85 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="10305" yWindow="-15" windowWidth="10230" windowHeight="8745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Dummy_for_Comparison1" sheetId="4" r:id="rId4"/>
+    <sheet name="Dummy_for_Comparison2" sheetId="5" r:id="rId5"/>
+    <sheet name="Dummy_for_Comparison3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+  <si>
+    <t>Hours</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/5/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weekly Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/7/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K'Nex Meeting</t>
+  </si>
+  <si>
+    <t>Meccano Meeting at Nick's Place</t>
+  </si>
+  <si>
+    <t>CFP Motor, Gear and Positioning write-up</t>
+  </si>
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Hours</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/5/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Weekly Meeting</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/7/2010</t>
-    <phoneticPr fontId="1"/>
+    <t>1/12/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/19/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/21/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>K'Nex Meeting</t>
-  </si>
-  <si>
-    <t>Meccano Meeting at Nick's Place</t>
-  </si>
-  <si>
-    <t>CFP Motor, Gear and Positioning write-up</t>
+    <t>1/24/2010</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Torque theta graphs and motor selction writeup for TAR</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -66,14 +93,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -82,7 +109,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -110,7 +137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -120,17 +147,55 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -414,50 +479,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -468,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -479,7 +544,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -490,18 +555,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>40202</v>
+      <c r="A7" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -517,7 +637,188 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison3!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>40186</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>40187</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>40189</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -525,13 +826,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -82,6 +82,10 @@
   </si>
   <si>
     <t>Torque theta graphs and motor selction writeup for TAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/26/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -160,21 +164,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -479,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -624,6 +614,28 @@
         <v>16</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -641,7 +653,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -660,7 +672,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison3!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -86,6 +86,14 @@
   </si>
   <si>
     <t>1/26/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/27/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TAR - motor and torque</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -469,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -634,6 +642,17 @@
       </c>
       <c r="C14" s="5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>TAR - motor and torque</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/28/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -477,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -653,6 +657,17 @@
       </c>
       <c r="C15" s="5" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -98,6 +98,30 @@
   </si>
   <si>
     <t>1/28/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/1/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>encoder analysis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/2/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/1/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting - Chris meeting prep</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chris Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -481,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -667,6 +691,50 @@
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
     </row>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -10,16 +10,13 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Dummy_for_Comparison1" sheetId="4" r:id="rId4"/>
-    <sheet name="Dummy_for_Comparison2" sheetId="5" r:id="rId5"/>
-    <sheet name="Dummy_for_Comparison3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -54,23 +51,19 @@
     <t>CFP Motor, Gear and Positioning write-up</t>
   </si>
   <si>
+    <t>1/12/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/19/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/21/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/12/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/19/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/21/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
   <si>
     <t>Group Meeting</t>
@@ -122,6 +115,18 @@
   </si>
   <si>
     <t>Chris Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/8/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/9/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/11/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -508,7 +513,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -520,7 +525,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -552,8 +557,8 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>40186</v>
+      <c r="A4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -563,8 +568,8 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>40187</v>
+      <c r="A5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -574,8 +579,8 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>40189</v>
+      <c r="A6" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -586,7 +591,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -597,7 +602,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -608,7 +613,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -619,7 +624,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -630,29 +635,29 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5">
         <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5">
         <v>2</v>
@@ -663,7 +668,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
@@ -674,18 +679,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5">
         <v>4</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -696,40 +701,40 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>24</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
@@ -781,175 +786,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="3" max="3" width="59" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>40186</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>40187</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>40189</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -127,6 +127,22 @@
   </si>
   <si>
     <t>1/11/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/4/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Encoder Research</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/8/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -510,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -741,6 +757,28 @@
       </c>
       <c r="C20" s="5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/11/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Design and Decision Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/8/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -526,15 +538,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
@@ -779,6 +791,28 @@
       </c>
       <c r="C22" s="5" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="5">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -155,6 +155,14 @@
   </si>
   <si>
     <t>2/8/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/18/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting on Skype</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -538,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -813,6 +821,17 @@
       </c>
       <c r="C24" s="5" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -26,18 +26,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/5/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Weekly Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/7/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -51,18 +43,6 @@
     <t>CFP Motor, Gear and Positioning write-up</t>
   </si>
   <si>
-    <t>1/12/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/19/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/21/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -70,46 +50,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/24/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Torque theta graphs and motor selction writeup for TAR</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/26/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/27/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TAR - motor and torque</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/28/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2/1/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>encoder analysis</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/2/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2/1/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Group Meeting - Chris meeting prep</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -118,51 +70,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/8/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/9/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/11/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2/4/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Encoder Research</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/8/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/11/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Design and Decision Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/8/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2/18/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Group Meeting on Skype</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Motor controller cables order</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -218,7 +146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -226,9 +154,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -546,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -561,7 +486,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -571,267 +496,289 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="2">
+        <v>40183</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="2">
+        <v>40185</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>40186</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>40187</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
+      <c r="A6" s="2">
+        <v>40189</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>9</v>
+      <c r="A7" s="2">
+        <v>40190</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>40190</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>40197</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>40197</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>40199</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3">
+        <v>40202</v>
+      </c>
+      <c r="B12" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>40204</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>40204</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>40205</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>40206</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>40210</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>40210</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>40210</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>40211</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>40213</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>40217</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>40217</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>40220</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>40227</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="5">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>40231</v>
+      </c>
+      <c r="B26" s="4">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>40232</v>
+      </c>
+      <c r="B27" s="4">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="5">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="5">
-        <v>3</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>Motor controller cables order</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -471,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -779,6 +783,28 @@
       </c>
       <c r="C27" s="4" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>40239</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>40239</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>Motor controller cables order</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -475,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -805,6 +809,17 @@
       </c>
       <c r="C29" s="4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>40241</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -100,6 +100,18 @@
   <si>
     <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Preliminary Offest Joint Design</t>
+  </si>
+  <si>
+    <t>Detailed Offset Link/Link5/Tool Mount Drawings</t>
+  </si>
+  <si>
+    <t>Session 2 with Dave (design and solidworks)</t>
+  </si>
+  <si>
+    <t>Session 1 with Dave (design and solidworks) - Markus Talk</t>
   </si>
 </sst>
 </file>
@@ -110,14 +122,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -126,7 +138,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -172,7 +184,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -195,7 +207,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -479,16 +491,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -820,6 +832,50 @@
       </c>
       <c r="C30" s="4" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>40243</v>
+      </c>
+      <c r="B31" s="4">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>40245</v>
+      </c>
+      <c r="B32" s="4">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>40246</v>
+      </c>
+      <c r="B33" s="4">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>40247</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +891,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -854,7 +910,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>Session 1 with Dave (design and solidworks) - Markus Talk</t>
+  </si>
+  <si>
+    <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -122,14 +126,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -138,7 +142,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -184,7 +188,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -207,7 +211,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -491,16 +495,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -861,20 +865,42 @@
         <v>40246</v>
       </c>
       <c r="B33" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
+        <v>40246</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>40246</v>
+      </c>
+      <c r="B35" s="4">
+        <v>3</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
         <v>40247</v>
       </c>
-      <c r="B34" s="4">
-        <v>2</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B36" s="4">
+        <v>2</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -891,7 +917,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -910,7 +936,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>Session 1 with Dave (design and solidworks) - Markus Talk</t>
+  </si>
+  <si>
+    <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Group Meeting</t>
@@ -495,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -902,6 +906,17 @@
       </c>
       <c r="C36" s="4" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>40253</v>
+      </c>
+      <c r="B37" s="4">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -120,6 +120,12 @@
   <si>
     <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Final Tool Mount/Offset Drawings and Part research/listing</t>
+  </si>
+  <si>
+    <t>Final Tool Mount/Offset Drawings and Part research/listing cont'd</t>
   </si>
 </sst>
 </file>
@@ -130,14 +136,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -146,7 +152,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -192,7 +198,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -215,7 +221,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -499,16 +505,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -910,14 +916,45 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
+        <v>40248</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>40249</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
         <v>40253</v>
       </c>
-      <c r="B37" s="4">
-        <v>2</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="B39" s="4">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -932,7 +969,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -951,7 +988,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -508,7 +508,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -126,6 +126,14 @@
   </si>
   <si>
     <t>Final Tool Mount/Offset Drawings and Part research/listing cont'd</t>
+  </si>
+  <si>
+    <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skype Meeting</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -136,14 +144,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -152,7 +160,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -198,7 +206,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -221,7 +229,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -508,13 +516,13 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -948,13 +956,37 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="2"/>
+      <c r="A40" s="2">
+        <v>40260</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="2"/>
+      <c r="A41" s="2">
+        <v>40260</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="2"/>
+      <c r="A42" s="2">
+        <v>40263</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -969,7 +1001,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -988,7 +1020,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -134,6 +134,18 @@
   <si>
     <t>Skype Meeting</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Material Ordering</t>
+  </si>
+  <si>
+    <t>Fastener Ordering and checkup with Perry</t>
+  </si>
+  <si>
+    <t>Lecture in Scarfe</t>
+  </si>
+  <si>
+    <t>Bearing ordering-chechup-switch-reordering</t>
   </si>
 </sst>
 </file>
@@ -144,14 +156,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -160,7 +172,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -206,7 +218,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -229,7 +241,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -513,16 +525,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -935,56 +947,100 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>40249</v>
+        <v>40248</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>40253</v>
-      </c>
-      <c r="B39" s="4">
-        <v>2</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>27</v>
+        <v>40249</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>40260</v>
+        <v>40253</v>
       </c>
       <c r="B40" s="4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>40260</v>
+        <v>40253</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
+        <v>40255</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>40256</v>
+      </c>
+      <c r="B43" s="4">
+        <v>3</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>40260</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>40260</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
         <v>40263</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B46" s="4">
         <v>0.5</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1001,7 +1057,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -1020,7 +1076,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>Bearing ordering-chechup-switch-reordering</t>
+  </si>
+  <si>
+    <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -156,14 +160,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -172,7 +176,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -218,7 +222,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -241,7 +245,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -525,16 +529,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1042,6 +1046,28 @@
       </c>
       <c r="C46" s="4" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>40267</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>40267</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1057,7 +1083,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -1076,7 +1102,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -150,6 +150,9 @@
   <si>
     <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Machine Shop: Rotating Base cutting and milling</t>
   </si>
 </sst>
 </file>
@@ -160,14 +163,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -176,7 +179,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -222,7 +225,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -245,7 +248,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -529,16 +532,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1068,6 +1071,17 @@
       </c>
       <c r="C48" s="4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>40269</v>
+      </c>
+      <c r="B49" s="4">
+        <v>4</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1083,7 +1097,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -1102,7 +1116,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>Machine Shop: Rotating Base cutting and milling</t>
+  </si>
+  <si>
+    <t>Machine Shop</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -163,14 +167,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -179,7 +183,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -225,7 +229,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -248,7 +252,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -532,16 +536,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1082,6 +1086,17 @@
       </c>
       <c r="C49" s="4" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>40283</v>
+      </c>
+      <c r="B50" s="4">
+        <v>4</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1112,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -1116,7 +1131,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -157,6 +157,12 @@
   <si>
     <t>Machine Shop</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Machine Shop (extended hours): Rotating Base milling</t>
+  </si>
+  <si>
+    <t>Machine Shop</t>
   </si>
 </sst>
 </file>
@@ -167,14 +173,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -183,7 +189,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -211,7 +217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -227,9 +233,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -252,7 +261,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -536,16 +545,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1090,12 +1099,89 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
+        <v>40274</v>
+      </c>
+      <c r="B50" s="4">
+        <v>7</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>40275</v>
+      </c>
+      <c r="B51" s="4">
+        <v>4</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>40276</v>
+      </c>
+      <c r="B52" s="4">
+        <v>4</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>40277</v>
+      </c>
+      <c r="B53" s="4">
+        <v>4</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>40280</v>
+      </c>
+      <c r="B54" s="4">
+        <v>4</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5">
+        <v>40281</v>
+      </c>
+      <c r="B55" s="4">
+        <v>4</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>40282</v>
+      </c>
+      <c r="B56" s="4">
+        <v>4</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
         <v>40283</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B57" s="4">
         <v>4</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1112,7 +1198,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -1131,7 +1217,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -155,14 +155,10 @@
     <t>Machine Shop: Rotating Base cutting and milling</t>
   </si>
   <si>
-    <t>Machine Shop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Machine Shop (extended hours): Rotating Base milling</t>
   </si>
   <si>
-    <t>Machine Shop</t>
+    <t>Machine work, preparation, discussions, cleanup</t>
   </si>
 </sst>
 </file>
@@ -547,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1091,7 +1087,7 @@
         <v>40269</v>
       </c>
       <c r="B49" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>37</v>
@@ -1102,10 +1098,10 @@
         <v>40274</v>
       </c>
       <c r="B50" s="4">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1113,10 +1109,10 @@
         <v>40275</v>
       </c>
       <c r="B51" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1124,10 +1120,10 @@
         <v>40276</v>
       </c>
       <c r="B52" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1135,10 +1131,10 @@
         <v>40277</v>
       </c>
       <c r="B53" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1146,10 +1142,10 @@
         <v>40280</v>
       </c>
       <c r="B54" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1157,10 +1153,10 @@
         <v>40281</v>
       </c>
       <c r="B55" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1168,10 +1164,10 @@
         <v>40282</v>
       </c>
       <c r="B56" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1179,10 +1175,10 @@
         <v>40283</v>
       </c>
       <c r="B57" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/ibrahim.xlsx
+++ b/trunk/status reports/ibrahim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1"/>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>Machine work, preparation, discussions, cleanup</t>
+  </si>
+  <si>
+    <t>Final Report writeup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Machine work, preparation, discussions, cleanup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Machine work, assembly, poster</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -169,14 +181,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -185,7 +197,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -213,7 +225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -229,12 +241,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -257,7 +266,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -541,16 +550,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1149,7 +1158,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="5">
+      <c r="A55" s="2">
         <v>40281</v>
       </c>
       <c r="B55" s="4">
@@ -1179,6 +1188,61 @@
       </c>
       <c r="C57" s="4" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>40284</v>
+      </c>
+      <c r="B58" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>40286</v>
+      </c>
+      <c r="B59" s="4">
+        <v>8</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>40287</v>
+      </c>
+      <c r="B60" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>40288</v>
+      </c>
+      <c r="B61" s="4">
+        <v>2</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>40289</v>
+      </c>
+      <c r="B62" s="4">
+        <v>12</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1258,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -1213,7 +1277,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
